--- a/Demos/Modules/ImportWizard/ImportWizardTester.Module/DatabaseUpdate/Master Data.xlsx
+++ b/Demos/Modules/ImportWizard/ImportWizardTester.Module/DatabaseUpdate/Master Data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eXpandFrameWork\eXpand\Demos\Modules\ImportWizard\ImportWizardTester.Module\DatabaseUpdate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28320" windowHeight="4125"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Gender</t>
   </si>
@@ -167,6 +172,12 @@
   </si>
   <si>
     <t>ImportName</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -320,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +578,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -589,384 +600,384 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <v>2</v>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
-        <v>2</v>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
-        <v>2</v>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
-        <v>2</v>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
-        <v>2</v>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
-        <v>2</v>
+      <c r="B10" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
-        <v>2</v>
+      <c r="B11" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
-        <v>2</v>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
-        <v>2</v>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="5">
-        <v>2</v>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>2</v>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>2</v>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
+      <c r="B23" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>2</v>
+      <c r="B24" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>2</v>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
-        <v>2</v>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>2</v>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
+      <c r="B29" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
-        <v>2</v>
+      <c r="B30" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
-        <v>2</v>
+      <c r="B31" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
+      <c r="B32" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
+      <c r="B33" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
-        <v>2</v>
+      <c r="B34" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
+      <c r="B35" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
-        <v>2</v>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
+      <c r="B37" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
+      <c r="B39" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
-        <v>2</v>
+      <c r="B40" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
+      <c r="B41" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
-        <v>2</v>
+      <c r="B42" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
-        <v>2</v>
+      <c r="B43" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
-        <v>1</v>
+      <c r="B44" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
+      <c r="B45" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
-        <v>2</v>
+      <c r="B46" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
-        <v>2</v>
+      <c r="B48" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
